--- a/packages/cli/demo/vue-demo/1.xlsx
+++ b/packages/cli/demo/vue-demo/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="14740"/>
+    <workbookView windowWidth="32123" windowHeight="12995"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>key</t>
   </si>
@@ -181,7 +181,7 @@
     <t>이것은 {about}입니다</t>
   </si>
   <si>
-    <t>z</t>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -189,12 +189,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,7 +203,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -217,6 +217,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -226,17 +263,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -248,39 +301,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,69 +347,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,6 +363,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,13 +483,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,157 +537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,6 +554,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,30 +616,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,21 +644,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -664,16 +657,124 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,188 +783,79 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -1199,15 +1191,15 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="15.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.8928571428571" customWidth="1"/>
-    <col min="2" max="2" width="48.6607142857143" customWidth="1"/>
-    <col min="3" max="3" width="35.2678571428571" customWidth="1"/>
-    <col min="4" max="4" width="25.4375" customWidth="1"/>
+    <col min="1" max="1" width="25.8916666666667" customWidth="1"/>
+    <col min="2" max="2" width="48.6583333333333" customWidth="1"/>
+    <col min="3" max="3" width="35.2666666666667" customWidth="1"/>
+    <col min="4" max="4" width="25.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1228,7 +1220,7 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -1242,7 +1234,7 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
@@ -1256,7 +1248,7 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
@@ -1270,7 +1262,7 @@
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
@@ -1284,7 +1276,7 @@
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
@@ -1298,7 +1290,7 @@
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
@@ -1312,7 +1304,7 @@
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
@@ -1326,7 +1318,7 @@
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
@@ -1340,7 +1332,7 @@
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="s">
@@ -1354,7 +1346,7 @@
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
@@ -1368,7 +1360,7 @@
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C12" t="s">
@@ -1382,7 +1374,7 @@
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C13" t="s">
@@ -1396,7 +1388,7 @@
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C14" t="s">
@@ -1406,9 +1398,18 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
